--- a/Excel practice 1.xlsx
+++ b/Excel practice 1.xlsx
@@ -4,21 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15720" windowHeight="8280" activeTab="4"/>
+    <workbookView windowWidth="15720" windowHeight="8280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
-    <pivotCache cacheId="1" r:id="rId8"/>
-    <pivotCache cacheId="2" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -475,123 +473,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFABABAB"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFABABAB"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFABABAB"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFABABAB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFABABAB"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFABABAB"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFABABAB"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFABABAB"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFABABAB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFABABAB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFABABAB"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFABABAB"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -718,7 +605,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -730,34 +617,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -842,7 +729,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -862,33 +749,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2419,33 +2279,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="45972.7398148148" refreshedBy="osaze" recordCount="6">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A3:B9" sheet="Sheet3"/>
-  </cacheSource>
-  <cacheFields count="2">
-    <cacheField name="Sum of Total Sales" numFmtId="0">
-      <sharedItems count="6">
-        <s v="Region"/>
-        <s v="East"/>
-        <s v="North"/>
-        <s v="South"/>
-        <s v="West"/>
-        <s v="Grand Total"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Units Sold" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="60" maxValue="90" count="3">
-        <n v="60"/>
-        <m/>
-        <n v="90"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="45972.7422106481" refreshedBy="osaze" recordCount="6">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:C9" sheet="Sheet5"/>
@@ -2573,35 +2406,6 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="6">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
@@ -2731,22 +2535,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0">
-  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="2">
-    <pivotField compact="0" showAll="0"/>
-    <pivotField compact="0" showAll="0"/>
-  </pivotFields>
-  <pivotTableStyleInfo name="PivotStylePreset2_Accent1" showRowHeaders="1" showColHeaders="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0">
   <location ref="A3:K9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
@@ -2846,8 +2634,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="2" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="1" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:E11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" showAll="0">
@@ -2926,7 +2714,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
@@ -3413,116 +3201,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
-  <sheetData>
-    <row r="3" spans="1:3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A3:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -3682,7 +3363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A3:E11"/>
@@ -3819,12 +3500,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A3:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -3942,7 +3623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G10"/>
@@ -4202,7 +3883,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{50c1c924-d2ed-4e80-bfd1-2cc01eeb1d91}</x14:id>
+          <x14:id>{47f6d2d4-c46b-45b8-945f-67214fef254a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4233,7 +3914,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{50c1c924-d2ed-4e80-bfd1-2cc01eeb1d91}">
+          <x14:cfRule type="dataBar" id="{47f6d2d4-c46b-45b8-945f-67214fef254a}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/Excel practice 1.xlsx
+++ b/Excel practice 1.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15720" windowHeight="8280" activeTab="1"/>
+    <workbookView windowWidth="21000" windowHeight="8280" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="sheet5" sheetId="6" r:id="rId1"/>
+    <sheet name="sheet4" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,13 +37,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="21">
   <si>
+    <t>Sum of Sum of Total Sales</t>
+  </si>
+  <si>
+    <t>Count of Product2</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
     <t>Sum of Total Sales</t>
   </si>
   <si>
-    <t>Region</t>
+    <t>Units Sold</t>
   </si>
   <si>
-    <t>Product</t>
+    <t>Region</t>
   </si>
   <si>
     <t>East</t>
@@ -58,7 +70,7 @@
     <t>West</t>
   </si>
   <si>
-    <t>Grand Total</t>
+    <t>Product</t>
   </si>
   <si>
     <t>Apples</t>
@@ -68,18 +80,6 @@
   </si>
   <si>
     <t>Oranges</t>
-  </si>
-  <si>
-    <t>Units Sold</t>
-  </si>
-  <si>
-    <t>Sum of Sum of Total Sales</t>
-  </si>
-  <si>
-    <t>Count of Product2</t>
-  </si>
-  <si>
-    <t>Date</t>
   </si>
   <si>
     <t>Unit Price</t>
@@ -1040,7 +1040,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel practice 1.xlsx]Sheet6!PivotTable4</c:name>
+    <c:name>[Excel practice 1.xlsx]sheet5!PivotTable4</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -1066,7 +1066,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet6!$B$3:$B$4</c:f>
+              <c:f>sheet5!$B$3:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1143,7 +1143,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet6!$A$5:$A$11</c:f>
+              <c:f>sheet5!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1169,7 +1169,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$B$5:$B$11</c:f>
+              <c:f>sheet5!$B$5:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1185,7 +1185,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet6!$C$3:$C$4</c:f>
+              <c:f>sheet5!$C$3:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1262,7 +1262,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet6!$A$5:$A$11</c:f>
+              <c:f>sheet5!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1288,7 +1288,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$C$5:$C$11</c:f>
+              <c:f>sheet5!$C$5:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1313,7 +1313,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet6!$D$3:$D$4</c:f>
+              <c:f>sheet5!$D$3:$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1390,7 +1390,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet6!$A$5:$A$11</c:f>
+              <c:f>sheet5!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1416,7 +1416,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$D$5:$D$11</c:f>
+              <c:f>sheet5!$D$5:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2281,7 +2281,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="45972.7422106481" refreshedBy="osaze" recordCount="6">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A3:C9" sheet="Sheet5"/>
+    <worksheetSource ref="A3:C9" sheet="sheet4"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="Date" numFmtId="0">
@@ -2437,204 +2437,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0">
-  <location ref="A3:F8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField compact="0" numFmtId="58" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" compact="0" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" showAll="0"/>
-    <pivotField compact="0" showAll="0"/>
-    <pivotField compact="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" showAll="0">
-      <items count="10">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Total Sales" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStylePreset2_Accent1" showRowHeaders="1" showColHeaders="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0">
-  <location ref="A3:K9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField compact="0" numFmtId="58" showAll="0"/>
-    <pivotField compact="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" compact="0" showAll="0">
-      <items count="10">
-        <item x="3"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" showAll="0"/>
-    <pivotField compact="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Total Sales" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStylePreset2_Accent1" showRowHeaders="1" showColHeaders="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="1" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:E11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
@@ -2714,7 +2516,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
@@ -2811,6 +2613,204 @@
   </colItems>
   <dataFields count="2">
     <dataField name="Count of Product2" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Total Sales" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStylePreset2_Accent1" showRowHeaders="1" showColHeaders="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0">
+  <location ref="A3:K9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField compact="0" numFmtId="58" showAll="0"/>
+    <pivotField compact="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" compact="0" showAll="0">
+      <items count="10">
+        <item x="3"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" showAll="0"/>
+    <pivotField compact="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Sales" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStylePreset2_Accent1" showRowHeaders="1" showColHeaders="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0">
+  <location ref="A3:F8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField compact="0" numFmtId="58" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" compact="0" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" showAll="0"/>
+    <pivotField compact="0" showAll="0"/>
+    <pivotField compact="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0">
+      <items count="10">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
     <dataField name="Sum of Total Sales" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStylePreset2_Accent1" showRowHeaders="1" showColHeaders="1"/>
@@ -3080,292 +3080,6 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="18.5714285714286"/>
-    <col min="2" max="5" width="9.71428571428571"/>
-    <col min="6" max="6" width="11.8571428571429"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>180</v>
-      </c>
-      <c r="D5">
-        <v>90</v>
-      </c>
-      <c r="E5">
-        <v>120</v>
-      </c>
-      <c r="F5">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>108</v>
-      </c>
-      <c r="C6">
-        <v>132</v>
-      </c>
-      <c r="D6">
-        <v>114</v>
-      </c>
-      <c r="F6">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>234</v>
-      </c>
-      <c r="C7">
-        <v>252</v>
-      </c>
-      <c r="E7">
-        <v>270</v>
-      </c>
-      <c r="F7">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>342</v>
-      </c>
-      <c r="C8">
-        <v>564</v>
-      </c>
-      <c r="D8">
-        <v>204</v>
-      </c>
-      <c r="E8">
-        <v>390</v>
-      </c>
-      <c r="F8">
-        <v>1500</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A3:K9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="18.5714285714286"/>
-    <col min="2" max="10" width="12.4285714285714"/>
-    <col min="11" max="11" width="11.8571428571429"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>60</v>
-      </c>
-      <c r="C4">
-        <v>80</v>
-      </c>
-      <c r="D4">
-        <v>90</v>
-      </c>
-      <c r="E4">
-        <v>95</v>
-      </c>
-      <c r="F4">
-        <v>110</v>
-      </c>
-      <c r="G4">
-        <v>120</v>
-      </c>
-      <c r="H4">
-        <v>130</v>
-      </c>
-      <c r="I4">
-        <v>140</v>
-      </c>
-      <c r="J4">
-        <v>150</v>
-      </c>
-      <c r="K4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5">
-        <v>108</v>
-      </c>
-      <c r="H5">
-        <v>234</v>
-      </c>
-      <c r="K5">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="F6">
-        <v>132</v>
-      </c>
-      <c r="G6">
-        <v>180</v>
-      </c>
-      <c r="I6">
-        <v>252</v>
-      </c>
-      <c r="K6">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>90</v>
-      </c>
-      <c r="C7"/>
-      <c r="E7">
-        <v>114</v>
-      </c>
-      <c r="K7">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8"/>
-      <c r="C8">
-        <v>120</v>
-      </c>
-      <c r="J8">
-        <v>270</v>
-      </c>
-      <c r="K8">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>90</v>
-      </c>
-      <c r="C9">
-        <v>120</v>
-      </c>
-      <c r="D9">
-        <v>108</v>
-      </c>
-      <c r="E9">
-        <v>114</v>
-      </c>
-      <c r="F9">
-        <v>132</v>
-      </c>
-      <c r="G9">
-        <v>180</v>
-      </c>
-      <c r="H9">
-        <v>234</v>
-      </c>
-      <c r="I9">
-        <v>252</v>
-      </c>
-      <c r="J9">
-        <v>270</v>
-      </c>
-      <c r="K9">
-        <v>1500</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A3:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3381,15 +3095,15 @@
   <sheetData>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3401,12 +3115,12 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -3479,7 +3193,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>252</v>
@@ -3500,7 +3214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A3:C9"/>
@@ -3519,13 +3233,13 @@
   <sheetData>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3585,7 +3299,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -3612,7 +3326,7 @@
           <x14:colorLow theme="0" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet5!D4:D9</xm:f>
+              <xm:f>sheet4!D4:D9</xm:f>
               <xm:sqref>D3</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
@@ -3623,29 +3337,315 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.5714285714286"/>
+    <col min="2" max="10" width="12.4285714285714"/>
+    <col min="11" max="11" width="11.8571428571429"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>90</v>
+      </c>
+      <c r="E4">
+        <v>95</v>
+      </c>
+      <c r="F4">
+        <v>110</v>
+      </c>
+      <c r="G4">
+        <v>120</v>
+      </c>
+      <c r="H4">
+        <v>130</v>
+      </c>
+      <c r="I4">
+        <v>140</v>
+      </c>
+      <c r="J4">
+        <v>150</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5">
+        <v>108</v>
+      </c>
+      <c r="H5">
+        <v>234</v>
+      </c>
+      <c r="K5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="F6">
+        <v>132</v>
+      </c>
+      <c r="G6">
+        <v>180</v>
+      </c>
+      <c r="I6">
+        <v>252</v>
+      </c>
+      <c r="K6">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>90</v>
+      </c>
+      <c r="C7"/>
+      <c r="E7">
+        <v>114</v>
+      </c>
+      <c r="K7">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8">
+        <v>120</v>
+      </c>
+      <c r="J8">
+        <v>270</v>
+      </c>
+      <c r="K8">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>90</v>
+      </c>
+      <c r="C9">
+        <v>120</v>
+      </c>
+      <c r="D9">
+        <v>108</v>
+      </c>
+      <c r="E9">
+        <v>114</v>
+      </c>
+      <c r="F9">
+        <v>132</v>
+      </c>
+      <c r="G9">
+        <v>180</v>
+      </c>
+      <c r="H9">
+        <v>234</v>
+      </c>
+      <c r="I9">
+        <v>252</v>
+      </c>
+      <c r="J9">
+        <v>270</v>
+      </c>
+      <c r="K9">
+        <v>1500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="18.5714285714286"/>
+    <col min="2" max="5" width="9.71428571428571"/>
+    <col min="6" max="6" width="11.8571428571429"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>180</v>
+      </c>
+      <c r="D5">
+        <v>90</v>
+      </c>
+      <c r="E5">
+        <v>120</v>
+      </c>
+      <c r="F5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>108</v>
+      </c>
+      <c r="C6">
+        <v>132</v>
+      </c>
+      <c r="D6">
+        <v>114</v>
+      </c>
+      <c r="F6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>234</v>
+      </c>
+      <c r="C7">
+        <v>252</v>
+      </c>
+      <c r="E7">
+        <v>270</v>
+      </c>
+      <c r="F7">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>342</v>
+      </c>
+      <c r="C8">
+        <v>564</v>
+      </c>
+      <c r="D8">
+        <v>204</v>
+      </c>
+      <c r="E8">
+        <v>390</v>
+      </c>
+      <c r="F8">
+        <v>1500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="30" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
@@ -3662,10 +3662,10 @@
         <v>45962</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="D2" s="4">
         <v>120</v>
@@ -3686,10 +3686,10 @@
         <v>45962</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4">
         <v>90</v>
@@ -3710,10 +3710,10 @@
         <v>45963</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="D4" s="4">
         <v>150</v>
@@ -3734,10 +3734,10 @@
         <v>45963</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4">
         <v>60</v>
@@ -3758,10 +3758,10 @@
         <v>45964</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D6" s="4">
         <v>110</v>
@@ -3782,10 +3782,10 @@
         <v>45964</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D7" s="4">
         <v>130</v>
@@ -3806,10 +3806,10 @@
         <v>45965</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4">
         <v>80</v>
@@ -3830,10 +3830,10 @@
         <v>45965</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="D9" s="4">
         <v>95</v>
@@ -3854,10 +3854,10 @@
         <v>45966</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D10" s="4">
         <v>140</v>
@@ -3883,7 +3883,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{47f6d2d4-c46b-45b8-945f-67214fef254a}</x14:id>
+          <x14:id>{6b9d4014-7b10-4110-90b9-792e551a2d6c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3914,7 +3914,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{47f6d2d4-c46b-45b8-945f-67214fef254a}">
+          <x14:cfRule type="dataBar" id="{6b9d4014-7b10-4110-90b9-792e551a2d6c}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
